--- a/biology/Botanique/Hydrangeaceae/Hydrangeaceae.xlsx
+++ b/biology/Botanique/Hydrangeaceae/Hydrangeaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hydrangeaceae (Hydrangéacées) regroupe des plantes dicotylédones ; elle comprend une centaine d'espèces réparties en 10 à 16 genres.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Hydrangea, dérivé du grec ύδωρ / hydor, eau, et ἀγγεῖον / angeion, « vase, récipient », en référence au fait que la plante est avide d’eau et aux capsules en forme de coupe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Hydrangea, dérivé du grec ύδωρ / hydor, eau, et ἀγγεῖον / angeion, « vase, récipient », en référence au fait que la plante est avide d’eau et aux capsules en forme de coupe.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du XXe siècle, le genre type Hygrangea L. était rattaché à la famille des Saxifragacées, sous-famille des Hydrangéoïdées (la classification d'Engler en 1928 plaçait dans les Saxifragacées 7 sous-familles). Mais cette famille des Saxifragacées au sens large étant très hétérogène, il fut convenu de transformer la sous-famille des Hydrangéoïdées en famille des Hydrangeacées (Hutchinson, 1980).
 Le Angiosperm Phylogeny Website [5 février 2004] considère deux sous-familles, avec 190 espèces réparties en 17 genres : 
@@ -584,15 +600,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbustes, buissons, parfois des plantes herbacées rhizomateuses et quelquefois des lianes, généralement à tannins et à composés iridoïdes. Famille cosmopolite, ses membres se répartissent largement dans les régions tempérées et subtropicales de l'hémisphère Nord. Non indigène en France, cette famille y est représentée principalement par l'hortensia (genre Hydrangea), le seringat (genre Philadelphus), les Deutzia, en tant que plantes ornementales.
-Appareil végétatif
-Les espèces de cette famille sont souvent pubescentes (poils raides unicellulaires ou ramifiés) avec des tiges dressées (port érigé, plus rarement grimpant) comportant une moelle épaisse.
-Leurs feuilles simples sont généralement exstipulées et opposées (rarement verticillées ou alternes comme chez Cardiandra), à pétiole réduit, à nervation pennée ou palmée, au bord du limbe entier, parfois lobé ou denté[2].
-Appareil reproducteur
-Les inflorescences déterminées et complexes sont corymbiformes ou en panicules dont l'unité de base est la cyme. Les fleurs sont hermaphrodites et actinomorphes. Chez certains genres, les fleurs marginales du bord de l'inflorescence sont souvent stériles et irrégulières avec des sépales pétaloïdes hypertrophiés.
-Le périanthe est hétérochlamyde. Le calice est formé de 4 ou 5 sépales (parfois 12) soudés, à limbe souvent réduit, à la estivation valvaire ou imbriquée. La corolle  est formée de 4 ou 5 pétales (parfois 12) libres, à la préfloraison valvaire, imbriquée ou contortée[3].
 </t>
         </is>
       </c>
@@ -618,12 +630,90 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille sont souvent pubescentes (poils raides unicellulaires ou ramifiés) avec des tiges dressées (port érigé, plus rarement grimpant) comportant une moelle épaisse.
+Leurs feuilles simples sont généralement exstipulées et opposées (rarement verticillées ou alternes comme chez Cardiandra), à pétiole réduit, à nervation pennée ou palmée, au bord du limbe entier, parfois lobé ou denté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hydrangeaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrangeaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences déterminées et complexes sont corymbiformes ou en panicules dont l'unité de base est la cyme. Les fleurs sont hermaphrodites et actinomorphes. Chez certains genres, les fleurs marginales du bord de l'inflorescence sont souvent stériles et irrégulières avec des sépales pétaloïdes hypertrophiés.
+Le périanthe est hétérochlamyde. Le calice est formé de 4 ou 5 sépales (parfois 12) soudés, à limbe souvent réduit, à la estivation valvaire ou imbriquée. La corolle  est formée de 4 ou 5 pétales (parfois 12) libres, à la préfloraison valvaire, imbriquée ou contortée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hydrangeaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrangeaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (24 juin 2010)[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (24 juin 2010) :
 Broussaisia Gaudich.
 Cardiandra Siebold &amp; Zucc.
 Carpenteria Torr.
@@ -640,7 +730,7 @@
 Platycrater Siebold &amp; Zucc.
 Schizophragma Siebold &amp; Zucc.
 Whipplea Torr.
-Selon NCBI  (24 juin 2010)[5] :
+Selon NCBI  (24 juin 2010) :
 Broussaisia
 Cardiandra
 Carpenteria
@@ -657,7 +747,7 @@
 Platycrater
 Schizophragma
 Whipplea
-Selon DELTA Angio           (24 juin 2010)[6] :
+Selon DELTA Angio           (24 juin 2010) :
 Broussaisia
 Cardiandra
 Decumaria
@@ -668,7 +758,7 @@
 Pileostegia
 Platycrater
 Schizophragma
-Selon ITIS      (24 juin 2010)[7] :
+Selon ITIS      (24 juin 2010) :
 Broussaisia Gaud.
 Carpenteria Torr.
 Decumaria L.
@@ -683,33 +773,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Hydrangeaceae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hydrangeaceae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (24 juin 2010)[5] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (24 juin 2010) :
 genre Broussaisia
 Broussaisia arguta
 genre Cardiandra
